--- a/2324_5AHEL_AZE_DA_SumoBots.xlsx
+++ b/2324_5AHEL_AZE_DA_SumoBots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\diplomarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D56E38-0568-49B0-B41A-0D86420305BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CF73BE-E041-4D9F-AFB5-6923ECD1831F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="876" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AZE" sheetId="12" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="753" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="207">
   <si>
     <t>Datum</t>
   </si>
@@ -655,6 +655,24 @@
   <si>
     <t>Sensoren programmieren</t>
   </si>
+  <si>
+    <t>Funkmodule auf Interferenzen getestet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recherche des Funkmoduls </t>
+  </si>
+  <si>
+    <t>AP2/AP3</t>
+  </si>
+  <si>
+    <t>Recherche zur Konstruktionideen</t>
+  </si>
+  <si>
+    <t>Week 16</t>
+  </si>
+  <si>
+    <t>18.12.2023 - 24.12.2023</t>
+  </si>
 </sst>
 </file>
 
@@ -842,7 +860,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -942,6 +960,12 @@
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -14483,10 +14507,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>93.399999999999991</c:v>
+                  <c:v>90.899999999999991</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>86.59999999999998</c:v>
+                  <c:v>89.09999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14729,10 +14753,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>121.49999999999994</c:v>
+                  <c:v>118.99999999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>58.499999999999993</c:v>
+                  <c:v>60.999999999999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -14968,10 +14992,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>105.59999999999998</c:v>
+                  <c:v>103.09999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>74.399999999999991</c:v>
+                  <c:v>76.899999999999991</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -52350,10 +52374,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB7A7534-694C-40D9-8751-CE2B801AD914}">
-  <dimension ref="A1:H109"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F115" sqref="F115"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
@@ -54910,9 +54934,9 @@
         <v>195</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A107" s="34">
-        <v>45640</v>
+        <v>45274</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>30</v>
@@ -54937,9 +54961,9 @@
         <v>198</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A108" s="36">
-        <v>45640</v>
+        <v>45274</v>
       </c>
       <c r="B108" s="17" t="s">
         <v>29</v>
@@ -54964,9 +54988,9 @@
         <v>199</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" ht="28.8" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A109" s="34">
-        <v>45640</v>
+        <v>45274</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>31</v>
@@ -54989,6 +55013,101 @@
       </c>
       <c r="H109" s="2" t="s">
         <v>200</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="36">
+        <v>45275</v>
+      </c>
+      <c r="B110" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C110" s="37">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D110" s="37">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E110" s="37">
+        <f>D110-C110</f>
+        <v>0.10416666666666674</v>
+      </c>
+      <c r="F110" s="17" t="s">
+        <v>204</v>
+      </c>
+      <c r="G110" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H110" s="17" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="34">
+        <v>45275</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C111" s="35">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D111" s="35">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E111" s="35">
+        <f t="shared" ref="E110:E112" si="7">D111-C111</f>
+        <v>0.10416666666666674</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="H111" s="25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="36">
+        <v>45275</v>
+      </c>
+      <c r="B112" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C112" s="37">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D112" s="37">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E112" s="37">
+        <f t="shared" si="7"/>
+        <v>0.10416666666666674</v>
+      </c>
+      <c r="F112" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="G112" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="H112" s="54" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B113" s="38"/>
+      <c r="C113" s="38"/>
+      <c r="D113" s="38"/>
+      <c r="E113" s="38"/>
+      <c r="F113" s="38"/>
+      <c r="G113" s="38"/>
+      <c r="H113" s="55" t="s">
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -56619,8 +56738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8EE5E35-4F1C-4290-81CA-CC4C1C790D64}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -56683,20 +56802,20 @@
         <v>29</v>
       </c>
       <c r="B6" s="2">
-        <f>0+3.5</f>
-        <v>3.5</v>
+        <f>0+3.5+2.5</f>
+        <v>6</v>
       </c>
       <c r="C6" s="2">
         <f>B6-'Week 14'!B6</f>
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="D6" s="2">
         <f>'Week 14'!D6 - B6</f>
-        <v>93.399999999999991</v>
+        <v>90.899999999999991</v>
       </c>
       <c r="E6" s="2">
         <f>B6+'Week 14'!E6</f>
-        <v>86.59999999999998</v>
+        <v>89.09999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -56704,20 +56823,20 @@
         <v>30</v>
       </c>
       <c r="B7" s="6">
-        <f>0+3.5</f>
-        <v>3.5</v>
+        <f>0+3.5+2.5</f>
+        <v>6</v>
       </c>
       <c r="C7" s="6">
         <f>B7-'Week 14'!B7</f>
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="D7" s="6">
         <f>'Week 14'!D7 - B7</f>
-        <v>121.49999999999994</v>
+        <v>118.99999999999994</v>
       </c>
       <c r="E7" s="6">
         <f>B7+'Week 14'!E7</f>
-        <v>58.499999999999993</v>
+        <v>60.999999999999993</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -56725,20 +56844,20 @@
         <v>31</v>
       </c>
       <c r="B8" s="2">
-        <f>0+3.5</f>
-        <v>3.5</v>
+        <f>0+3.5+2.5</f>
+        <v>6</v>
       </c>
       <c r="C8" s="2">
         <f>B8-'Week 14'!B8</f>
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="D8" s="2">
         <f>'Week 14'!D8 - B8</f>
-        <v>105.59999999999998</v>
+        <v>103.09999999999998</v>
       </c>
       <c r="E8" s="2">
         <f>B8+'Week 14'!E8</f>
-        <v>74.399999999999991</v>
+        <v>76.899999999999991</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -56766,8 +56885,8 @@
         <v>5</v>
       </c>
       <c r="B12" s="2">
-        <f>0+3.5</f>
-        <v>3.5</v>
+        <f>0+3.5+2.5</f>
+        <v>6</v>
       </c>
       <c r="C12" s="2">
         <f>0</f>
@@ -56775,11 +56894,11 @@
       </c>
       <c r="D12" s="2">
         <f xml:space="preserve"> B12-C12</f>
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="E12" s="25">
         <f>B12+ 'Week 14'!E12</f>
-        <v>65.299999999999983</v>
+        <v>67.799999999999983</v>
       </c>
       <c r="F12" s="2">
         <v>40</v>
@@ -56790,8 +56909,8 @@
         <v>6</v>
       </c>
       <c r="B13" s="6">
-        <f>0+3.5</f>
-        <v>3.5</v>
+        <f>0+3.5+1</f>
+        <v>4.5</v>
       </c>
       <c r="C13" s="6">
         <f>0+1.5</f>
@@ -56799,11 +56918,11 @@
       </c>
       <c r="D13" s="6">
         <f xml:space="preserve"> B13-C13</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13" s="6">
         <f>B13+ 'Week 14'!E13</f>
-        <v>71.199999999999989</v>
+        <v>72.199999999999989</v>
       </c>
       <c r="F13" s="6">
         <v>40</v>
@@ -56814,8 +56933,8 @@
         <v>7</v>
       </c>
       <c r="B14" s="2">
-        <f>0+3.5</f>
-        <v>3.5</v>
+        <f>0+3.5+2.5</f>
+        <v>6</v>
       </c>
       <c r="C14" s="2">
         <f>0</f>
@@ -56823,11 +56942,11 @@
       </c>
       <c r="D14" s="2">
         <f xml:space="preserve"> B14-C14</f>
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="E14" s="25">
         <f>B14+ 'Week 14'!E14</f>
-        <v>60.899999999999991</v>
+        <v>63.399999999999991</v>
       </c>
       <c r="F14" s="2">
         <v>60</v>
@@ -56838,8 +56957,8 @@
         <v>22</v>
       </c>
       <c r="B15" s="6">
-        <f>0</f>
-        <v>0</v>
+        <f>0+1.5</f>
+        <v>1.5</v>
       </c>
       <c r="C15" s="6">
         <f>0+1</f>
@@ -56847,11 +56966,11 @@
       </c>
       <c r="D15" s="6">
         <f t="shared" ref="D15:D16" si="0" xml:space="preserve"> B15-C15</f>
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="E15" s="6">
         <f>B15+ 'Week 14'!E15</f>
-        <v>14.06</v>
+        <v>15.56</v>
       </c>
       <c r="F15" s="6">
         <v>70</v>

--- a/2324_5AHEL_AZE_DA_SumoBots.xlsx
+++ b/2324_5AHEL_AZE_DA_SumoBots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\diplomarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CF73BE-E041-4D9F-AFB5-6923ECD1831F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92540BFB-F965-4A2B-A6B9-C0DAC7BE36CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,8 +29,10 @@
     <sheet name="Week 13" sheetId="23" r:id="rId14"/>
     <sheet name="Week 14" sheetId="24" r:id="rId15"/>
     <sheet name="Week 15" sheetId="25" r:id="rId16"/>
+    <sheet name="Week 16" sheetId="26" r:id="rId17"/>
+    <sheet name="Week 17" sheetId="27" r:id="rId18"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="214">
   <si>
     <t>Datum</t>
   </si>
@@ -672,6 +674,27 @@
   </si>
   <si>
     <t>18.12.2023 - 24.12.2023</t>
+  </si>
+  <si>
+    <t>Week 17</t>
+  </si>
+  <si>
+    <t>25.12.2023 - 31.12.2023</t>
+  </si>
+  <si>
+    <t>Farbsensor hinzufügen, PCB erstellen und Pin-connection prüfen</t>
+  </si>
+  <si>
+    <t>Roboter RevB Schaltplan weiterentwickelt, Gyroscope u. OLED Display getestet u. hinzugefügt, Footprint für Vibrationssensor selbst erstellt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schaltplan fertiggestellt (Farbsensor, Scheinwerfer, Bremslicht), richtige Footprints erstellt, neue Pindokumentation, PCB angefangen </t>
+  </si>
+  <si>
+    <t>PCB fertigstellen (routen, DRC ohne Warnings)</t>
+  </si>
+  <si>
+    <t>PCB fertiggestellt</t>
   </si>
 </sst>
 </file>
@@ -15698,6 +15721,2076 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart61.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>LUC</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-38DB-49CF-B54B-FA79C9F08D17}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-38DB-49CF-B54B-FA79C9F08D17}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Week 16'!$D$5,'Week 16'!$E$5)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Stunden offen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Stunden gesamt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Week 16'!$D$6,'Week 16'!$E$6)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>90.899999999999991</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>89.09999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-38DB-49CF-B54B-FA79C9F08D17}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart62.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>EIS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3EA7-4994-9132-467E3D9EB304}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-3EA7-4994-9132-467E3D9EB304}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Week 16'!$D$5,'Week 16'!$E$5)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Stunden offen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Stunden gesamt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Week 16'!$D$7,'Week 16'!$E$7)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>118.99999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.999999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3EA7-4994-9132-467E3D9EB304}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart63.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>ZIC</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-8EEA-4BDD-9833-DD891A2A01E3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8EEA-4BDD-9833-DD891A2A01E3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Week 16'!$D$5,'Week 16'!$E$5)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Stunden offen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Stunden gesamt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Week 16'!$D$8,'Week 16'!$E$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>103.09999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.899999999999991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-8EEA-4BDD-9833-DD891A2A01E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart64.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.4820996094706549E-2"/>
+          <c:y val="0.19194971384029344"/>
+          <c:w val="0.87531445646313666"/>
+          <c:h val="0.70395713133497118"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Week 16'!$F$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fortschritt [%]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Week 16'!$A$12:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AP5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Week 16'!$F$12:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F981-4DC1-A7C1-ADB77B7C1F28}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1994932367"/>
+        <c:axId val="1821649279"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1994932367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1821649279"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1821649279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1994932367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart65.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>LUC</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-F843-4E8F-9C6C-93D5121F97F5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-F843-4E8F-9C6C-93D5121F97F5}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Week 17'!$D$5,'Week 17'!$E$5)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Stunden offen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Stunden gesamt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Week 17'!$D$6,'Week 17'!$E$6)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>78.999999999999986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100.99999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F843-4E8F-9C6C-93D5121F97F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart66.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>EIS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A9D1-4844-AE40-357E3D385B15}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A9D1-4844-AE40-357E3D385B15}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Week 17'!$D$5,'Week 17'!$E$5)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Stunden offen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Stunden gesamt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Week 17'!$D$7,'Week 17'!$E$7)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>118.99999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.999999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A9D1-4844-AE40-357E3D385B15}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart67.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="de-DE"/>
+              <a:t>ZIC</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A79A-48E5-BE59-8CF4062F8C42}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A79A-48E5-BE59-8CF4062F8C42}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Week 17'!$D$5,'Week 17'!$E$5)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Stunden offen</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Stunden gesamt</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Week 17'!$D$8,'Week 17'!$E$8)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>103.09999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.899999999999991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A79A-48E5-BE59-8CF4062F8C42}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart68.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.4820996094706549E-2"/>
+          <c:y val="0.19194971384029344"/>
+          <c:w val="0.87531445646313666"/>
+          <c:h val="0.70395713133497118"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Week 17'!$F$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fortschritt [%]</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Week 17'!$A$12:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>AP1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AP2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>AP3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>AP4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>AP5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Week 17'!$F$12:$F$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0003-4C63-A0A6-07960FB8C175}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1994932367"/>
+        <c:axId val="1821649279"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1994932367"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1821649279"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1821649279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1994932367"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="5"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -18716,6 +20809,326 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors61.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors62.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors63.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors64.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors65.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors66.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors67.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors68.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -47705,6 +50118,4130 @@
 </file>
 
 <file path=xl/charts/style60.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style61.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style62.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style63.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style64.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style65.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style66.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style67.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style68.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -50835,6 +57372,320 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9094DCD9-11B2-45D7-8003-DF8BAD44D067}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A32CD212-F064-4B37-8F4F-104CDF9E9F8A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>704851</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2185A0B-D20D-48C3-ADAF-7651AFE4A3FE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D71BC59-E490-4EA9-B930-45A2900681B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C20DA0E6-FF82-48AD-8278-0FE094240C95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91C69F7E-626A-423C-BDA8-D08583C91786}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>704851</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6908D01D-E6F3-4D4D-B70A-1DFE6A46FFA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78B8ED4B-CD90-40C5-A3C3-B62688FCF864}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1104900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Diagramm 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DC1E0B1-2ECD-4027-96B7-35BAE8BD2C43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -52374,10 +59225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB7A7534-694C-40D9-8751-CE2B801AD914}">
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:H117"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D122" sqref="D122"/>
+      <selection activeCell="H120" sqref="H120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
@@ -55056,7 +61907,7 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="E111" s="35">
-        <f t="shared" ref="E110:E112" si="7">D111-C111</f>
+        <f t="shared" ref="E111:E112" si="7">D111-C111</f>
         <v>0.10416666666666674</v>
       </c>
       <c r="F111" s="2" t="s">
@@ -55108,6 +61959,100 @@
       <c r="G113" s="38"/>
       <c r="H113" s="55" t="s">
         <v>206</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B114" s="38"/>
+      <c r="C114" s="38"/>
+      <c r="D114" s="38"/>
+      <c r="E114" s="38"/>
+      <c r="F114" s="38"/>
+      <c r="G114" s="38"/>
+      <c r="H114" s="18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="72" x14ac:dyDescent="0.3">
+      <c r="A115" s="34">
+        <v>45286</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C115" s="35">
+        <v>0.4375</v>
+      </c>
+      <c r="D115" s="35">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="E115" s="35">
+        <f>D115-C115</f>
+        <v>0.16666666666666663</v>
+      </c>
+      <c r="F115" s="45" t="s">
+        <v>210</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H115" s="45" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A116" s="36">
+        <v>45286</v>
+      </c>
+      <c r="B116" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C116" s="37">
+        <v>0.75</v>
+      </c>
+      <c r="D116" s="37">
+        <v>0.90972222222222221</v>
+      </c>
+      <c r="E116" s="37">
+        <f>D116-C116</f>
+        <v>0.15972222222222221</v>
+      </c>
+      <c r="F116" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="G116" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H116" s="54" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="34">
+        <v>45287</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C117" s="35">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D117" s="35">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E117" s="35">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -56739,7 +63684,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="B12" sqref="B12:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -56992,6 +63937,531 @@
       </c>
       <c r="E16" s="25">
         <f>B16+ 'Week 14'!E16</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270F48CE-4A13-42E3-9AC8-6E1C84D7316F}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2">
+        <f>B6-'Week 15'!B6</f>
+        <v>-6</v>
+      </c>
+      <c r="D6" s="2">
+        <f>'Week 15'!D6 - B6</f>
+        <v>90.899999999999991</v>
+      </c>
+      <c r="E6" s="2">
+        <f>B6+'Week 15'!E6</f>
+        <v>89.09999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6">
+        <f>B7-'Week 15'!B7</f>
+        <v>-6</v>
+      </c>
+      <c r="D7" s="6">
+        <f>'Week 15'!D7 - B7</f>
+        <v>118.99999999999994</v>
+      </c>
+      <c r="E7" s="6">
+        <f>B7+'Week 15'!E7</f>
+        <v>60.999999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <f>B8-'Week 15'!B8</f>
+        <v>-6</v>
+      </c>
+      <c r="D8" s="2">
+        <f>'Week 15'!D8 - B8</f>
+        <v>103.09999999999998</v>
+      </c>
+      <c r="E8" s="2">
+        <f>B8+'Week 15'!E8</f>
+        <v>76.899999999999991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <f>0+3.5+2.5</f>
+        <v>6</v>
+      </c>
+      <c r="D12" s="2">
+        <f xml:space="preserve"> B12-C12</f>
+        <v>-6</v>
+      </c>
+      <c r="E12" s="25">
+        <f>B12+ 'Week 15'!E12</f>
+        <v>67.799999999999983</v>
+      </c>
+      <c r="F12" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="6">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6">
+        <f>0+3.5+1</f>
+        <v>4.5</v>
+      </c>
+      <c r="D13" s="6">
+        <f xml:space="preserve"> B13-C13</f>
+        <v>-4.5</v>
+      </c>
+      <c r="E13" s="6">
+        <f>B13+ 'Week 15'!E13</f>
+        <v>72.199999999999989</v>
+      </c>
+      <c r="F13" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <f>0+3.5+2.5</f>
+        <v>6</v>
+      </c>
+      <c r="D14" s="2">
+        <f xml:space="preserve"> B14-C14</f>
+        <v>-6</v>
+      </c>
+      <c r="E14" s="25">
+        <f>B14+ 'Week 15'!E14</f>
+        <v>63.399999999999991</v>
+      </c>
+      <c r="F14" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0</v>
+      </c>
+      <c r="C15" s="6">
+        <f>0+1.5</f>
+        <v>1.5</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" ref="D15:D16" si="0" xml:space="preserve"> B15-C15</f>
+        <v>-1.5</v>
+      </c>
+      <c r="E15" s="6">
+        <f>B15+ 'Week 15'!E15</f>
+        <v>15.56</v>
+      </c>
+      <c r="F15" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="25">
+        <f>B16+ 'Week 15'!E16</f>
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BB28D7-011E-4B1C-B663-A596F4715764}">
+  <dimension ref="A1:F16"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2">
+        <f>0+4+3.9+4</f>
+        <v>11.9</v>
+      </c>
+      <c r="C6" s="2">
+        <f>B6-'Week 16'!B6</f>
+        <v>11.9</v>
+      </c>
+      <c r="D6" s="2">
+        <f>'Week 16'!D6 - B6</f>
+        <v>78.999999999999986</v>
+      </c>
+      <c r="E6" s="2">
+        <f>B6+'Week 16'!E6</f>
+        <v>100.99999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="6">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6">
+        <f>B7-'Week 16'!B7</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <f>'Week 16'!D7 - B7</f>
+        <v>118.99999999999994</v>
+      </c>
+      <c r="E7" s="6">
+        <f>B7+'Week 16'!E7</f>
+        <v>60.999999999999993</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <f>B8-'Week 16'!B8</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <f>'Week 16'!D8 - B8</f>
+        <v>103.09999999999998</v>
+      </c>
+      <c r="E8" s="2">
+        <f>B8+'Week 16'!E8</f>
+        <v>76.899999999999991</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="2">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <f xml:space="preserve"> B12-C12</f>
+        <v>0</v>
+      </c>
+      <c r="E12" s="25">
+        <f>B12+ 'Week 16'!E12</f>
+        <v>67.799999999999983</v>
+      </c>
+      <c r="F12" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="6">
+        <f>0+3.9+4+4</f>
+        <v>11.9</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
+        <f xml:space="preserve"> B13-C13</f>
+        <v>11.9</v>
+      </c>
+      <c r="E13" s="6">
+        <f>B13+ 'Week 16'!E13</f>
+        <v>84.1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <f xml:space="preserve"> B14-C14</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="25">
+        <f>B14+ 'Week 16'!E14</f>
+        <v>63.399999999999991</v>
+      </c>
+      <c r="F14" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <f t="shared" ref="D15:D16" si="0" xml:space="preserve"> B15-C15</f>
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <f>B15+ 'Week 16'!E15</f>
+        <v>15.56</v>
+      </c>
+      <c r="F15" s="6">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E16" s="25">
+        <f>B16+ 'Week 16'!E16</f>
         <v>0</v>
       </c>
       <c r="F16" s="2">

--- a/2324_5AHEL_AZE_DA_SumoBots.xlsx
+++ b/2324_5AHEL_AZE_DA_SumoBots.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\diplomarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92540BFB-F965-4A2B-A6B9-C0DAC7BE36CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9281EA-B7E5-4ADF-88CD-BB868F951C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="215">
   <si>
     <t>Datum</t>
   </si>
@@ -695,6 +695,9 @@
   </si>
   <si>
     <t>PCB fertiggestellt</t>
+  </si>
+  <si>
+    <t>Infrarotsensoren hinzugefügt, M3-Bohrlöcher mit Masseverbindung eingebunden</t>
   </si>
 </sst>
 </file>
@@ -59225,10 +59228,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB7A7534-694C-40D9-8751-CE2B801AD914}">
-  <dimension ref="A1:H117"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H120" sqref="H120"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelRow="2" x14ac:dyDescent="0.3"/>
@@ -62029,7 +62032,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A117" s="34">
         <v>45287</v>
       </c>
@@ -62040,18 +62043,46 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="D117" s="35">
-        <v>0.58333333333333337</v>
+        <v>0.5</v>
       </c>
       <c r="E117" s="35">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="F117" s="2" t="s">
-        <v>213</v>
+        <f>D117-C117</f>
+        <v>8.3333333333333315E-2</v>
+      </c>
+      <c r="F117" s="45" t="s">
+        <v>214</v>
       </c>
       <c r="G117" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H117" s="2" t="s">
+      <c r="H117" s="45" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" s="36">
+        <v>45287</v>
+      </c>
+      <c r="B118" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C118" s="37">
+        <v>0.625</v>
+      </c>
+      <c r="D118" s="37">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="E118" s="37">
+        <f>D118-C118</f>
+        <v>8.333333333333337E-2</v>
+      </c>
+      <c r="F118" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="G118" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="H118" s="17" t="s">
         <v>56</v>
       </c>
     </row>
@@ -64217,7 +64248,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/2324_5AHEL_AZE_DA_SumoBots.xlsx
+++ b/2324_5AHEL_AZE_DA_SumoBots.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas\Documents\diplomarbeit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9281EA-B7E5-4ADF-88CD-BB868F951C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55ECFEB0-625A-43F4-86C0-E5DB3BADF5FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="876" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="876" firstSheet="2" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AZE" sheetId="12" r:id="rId1"/>
@@ -17608,7 +17608,7 @@
                   <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>40</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>60</c:v>
@@ -59230,7 +59230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB7A7534-694C-40D9-8751-CE2B801AD914}">
   <dimension ref="A1:H118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A65" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D119" sqref="D119"/>
     </sheetView>
   </sheetViews>
@@ -64247,8 +64247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07BB28D7-011E-4B1C-B663-A596F4715764}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -64430,7 +64430,7 @@
         <v>84.1</v>
       </c>
       <c r="F13" s="6">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
